--- a/DMSNewVSale_2025-12-11_20-33.xlsx
+++ b/DMSNewVSale_2025-12-11_20-33.xlsx
@@ -5470,10 +5470,10 @@
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>146</v>
+        <v>91</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5610,7 +5610,7 @@
     </row>
     <row r="127" ht="26.25" customHeight="1">
       <c r="N127" s="13">
-        <v>6197.5150000000003</v>
+        <v>6212.5150000000003</v>
       </c>
       <c r="O127" s="13"/>
       <c r="P127" s="13"/>
